--- a/Excel/asio_audio_interface.xlsx
+++ b/Excel/asio_audio_interface.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0985E6-C1CB-4469-B438-D077EE671397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,84 +130,24 @@
     <t>If you need help, please ask on the Compiling Audacity board on the Audacity Forum.</t>
   </si>
   <si>
-    <t>ASIO ऑडिओ इंटरफेस - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>ASIO ऑडिओ इंटरफेस</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>विंडोजवर कमी विलंब रेकॉर्डिंग आणि प्लेबॅकसाठी मालकीचे एएसआयओ इंटरफेस मानक आवश्यक आहे. विंडोजवर मल्टी-चॅनेल रेकॉर्डिंग बनविण्याचा हा देखील एक चांगला मार्ग आहे.</t>
-  </si>
-  <si>
-    <t>परवाना प्रतिबंध आम्हाला ऑडसिटीच्या रिलीज केलेल्या आवृत्त्यांमध्ये एएसआयओ समर्थनासहित प्रतिबंधित करते, परंतु खाजगी, वितरित न करण्यायोग्य वापरासाठी एएसआयओ समर्थनासह ऑडॅसिटी संकलित केली जाऊ शकते.</t>
-  </si>
-  <si>
     <t>हे पृष्ठ एएसआयओ परवाना देणार्‍या समस्यांचा आणि एएसआयओ समर्थनासह ऑडॅसिटीचे संकलन करण्याच्या चरणांचे सारांश देते.</t>
   </si>
   <si>
     <t>सामग्री</t>
   </si>
   <si>
-    <t>विंडोज, लिनक्स आणि मॅकवरील 1 वतीने</t>
-  </si>
-  <si>
-    <t>2 धृष्टता आणि एएसआयओ</t>
-  </si>
-  <si>
-    <t>3 ऑडेसिटीमध्ये न वितरणीय एएसआयओ समर्थन</t>
-  </si>
-  <si>
     <t>विंडोज, लिनक्स आणि मॅकवरील उशिरा</t>
   </si>
   <si>
-    <t>एएसआयओ हे विंडोजवरील वापरात असलेले मालकीचे ऑडिओ इंटरफेस मानक आहे जे ऑपरेटिंग सिस्टमच्या मिक्सिंग कर्नलला मागे टाकत आहे, म्हणून संगणक ऑडिओ सॉफ्टवेअर आणि हार्डवेअर दरम्यान सर्वात कमी विलंब थेट संवाद प्रदान करते.</t>
-  </si>
-  <si>
     <t>एएसआयओ 24-बिट सॅम्पलिंगचे समर्थन करतो जे फक्त अन्यथा विंडोज डब्ल्यूएएसएपीआय किंवा डब्ल्यूडीएम-केएस (विंडोज ड्राइव्हर मॉडेल कर्नल स्ट्रीमिंग) अंतर्गत उपलब्ध आहे. 24-बिट सॅम्पलिंग मोठ्या गतिमान श्रेणी, कमी सैद्धांतिक ध्वनी मजला आणि कमी ऐकण्यायोग्य खंडांवर अधिक रिझोल्यूशनची परवानगी देते.</t>
   </si>
   <si>
-    <t>मूळ नसलेल्या एएसआयओ आउटपुट मूळ स्त्रोतापेक्षा "बिट एकसारखे" आहे.</t>
-  </si>
-  <si>
-    <t>हार्डवेअरचे एकाधिक भौतिक इनपुट आणि आउटपुट चॅनेल एकाच डिव्हाइसवर प्रवेश केले जातात.</t>
-  </si>
-  <si>
-    <t>ऑडसिटीमध्ये मायक्रोसॉफ्टच्या विंडोज डायरेक्टसाऊंड इंटरफेस प्रोटोकॉलचे समर्थन समाविष्ट आहे. ते वापरण्यासाठी, डिव्हाइस टूलबारमध्ये होस्ट म्हणून "विंडोज डायरेक्टसाऊंड" निवडा. हे काही ध्वनी उपकरणांवर मल्टी-चॅनेल रेकॉर्डिंगला समर्थन देईल, परंतु एएसआयओवर शक्य तितक्या कमी विलंब नाही.</t>
-  </si>
-  <si>
-    <t>लिनक्स वर, मानक ALSA ऑडिओ API सामान्यत: MME किंवा Windows DirectSound अंतर्गत Windows पेक्षा कमी विलंब प्रदान करते. तथापि, बर्‍याच लिनक्स वितरणे आता ऑडिओ रूटिंग आणि मिक्सिंगसाठी डीफॉल्टनुसार पल्स ऑडिओ वापरतात. पल्स ऑडिओ साऊंड स्रोत आणि लिनक्स कर्नल दरम्यान बसला आहे आणि म्हणूनच ALSA च्या थेट वापरापेक्षा काही प्रमाणात उशीर झाला आहे. सर्वात कमी विलंबसाठी, आपण जॅक एपीआय वापरू शकता जे अनुप्रयोगांदरम्यान कमी विलंबता ऑडिओ संप्रेषण आणि ऑडिओ रूटिंग दोन्ही प्रदान करते. करंट ऑडसिटी JACK ला ब well्यापैकी समर्थन देते, परंतु काही मर्यादांसह.</t>
-  </si>
-  <si>
-    <t>मॅक वर, कोअर ऑडिओ एक मानक एपीआय आहे आणि ऑडॅसिटीद्वारे पूर्णपणे समर्थित आहे. कोअर ऑडिओमध्ये एमएमई आणि विंडोज डायरेक्टसाऊंड अंतर्गत विंडोजपेक्षा कमी विलंब देखील आहेत परंतु सर्वात कमी विलंब होण्यासाठी जॅक ओएस एक्सचा वापर केला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>धडपड आणि एएसआयओ</t>
-  </si>
-  <si>
     <t>एएसआयओ तंत्रज्ञान जर्मन कंपनी स्टेनबर्गने विकसित केले आहे आणि परवाना कराराद्वारे संरक्षित आहे जे त्याच्या स्त्रोत कोडचे पुनर्वितरण प्रतिबंधित करते.</t>
   </si>
   <si>
-    <t>ओडीसिटी, जीपीएल अंतर्गत परवानाकृत मुक्त स्रोत प्रोग्राम म्हणून, सध्या एएसआयओ-सक्षम असूनही वापरकर्त्याचे समर्थन करण्यास असमर्थ आहे (वापरकर्त्याचे ध्वनी यंत्र प्रदान करणे देखील तितकेच सक्षम आहे). जर एएसआयओ समर्थन ऑडसिटी बिल्डमध्ये वितरित केला गेला असेल तर हे एकतर कोडचा समावेश केल्यास स्टीनबर्गच्या परवान्याच्या कराराचे उल्लंघन करेल किंवा कोड न ठेवल्यास उलटपक्षी ऑडिटीच्या जीपीएल परवान्याचे उल्लंघन करेल. स्टीनबर्ग कायम परवाना उघडण्याच्या अफवा पसरवत आहेत पण कोणतीही उघड हालचाल न करता. ज्या कोणालाही या समस्येची काळजी आहे त्यांना स्टेनबर्गला त्यांचे संपर्क पृष्ठाद्वारे त्यांची मते जाणून घेण्यासाठी आमंत्रित केले आहे.</t>
-  </si>
-  <si>
-    <t>ऑडेसिटीमध्ये न वितरणीय एएसआयओ समर्थन</t>
-  </si>
-  <si>
-    <t>ऑडीसिटी विंडोजवर अशा व्यक्तींसाठी एएसआयओ समर्थन प्रदान करते जे पर्यायी स्टीनबर्ग एएसआयओ एसडीके वापरून स्त्रोत कोडमधून ऑडॅसिटी संकलित करण्यास तयार आहेत.</t>
-  </si>
-  <si>
-    <t>ASIO समर्थन कठोरपणे प्रदान केले जाते की ते विना-वितरित आहे, म्हणजेच, आपण इतर कोणालाही ASIO समर्थनासह बिल्डची कॉपी किंवा वितरण करू शकत नाही. बिल्ड कठोरपणे आपल्या स्वत: च्या वैयक्तिक (खाजगी किंवा व्यावसायिक) वापरासाठी आहे. त्याच कारणांसाठी, ऑडिटी एएसआयओ समर्थनासह ऑडॅसीटीचे बिल्ड वितरित करू शकत नाही, म्हणून कृपया विचारू नका!</t>
-  </si>
-  <si>
-    <t>खाली ASIO समर्थनासह स्त्रोत कोडवरून ऑडॅसिटी संकलित करण्याचे विहंगावलोकन आहे.</t>
-  </si>
-  <si>
     <t>विनामूल्य मायक्रोसॉफ्ट व्हिज्युअल स्टुडिओ कम्युनिटी एडिशन एकात्मिक विकास पर्यावरण (आयडीई) स्थापित करा.</t>
   </si>
   <si>
@@ -214,23 +160,83 @@
     <t>डब्ल्यूएक्सविजेट्स जीयूआय टूलकिट डाउनलोड आणि स्थापित करा आणि नंतर व्हिज्युअल स्टुडिओचा वापर करुन डब्ल्यूएक्सविजेट्स तयार करा.</t>
   </si>
   <si>
-    <t>आपण ज्या ठिकाणी विजेट्स स्थापित केले त्या डिरेक्टरीमध्ये डब्ल्यूएक्सडब्ल्यूएन एनवायरनमेंट व्हेरिएबल सेट करा आणि जिथे आपण एएसआयओ एसडीके स्थापित केले त्या निर्देशिकेमध्ये एएसआयओएसडीके_डिआयर एन्व्हायर्नमेंट व्हेरिएबल सेट करा. संगणक रीबूट करा.</t>
-  </si>
-  <si>
-    <t>व्हिज्युअल स्टुडिओ वापरुन ऑडसिटी बिल्ड करा.</t>
-  </si>
-  <si>
-    <t>संपूर्ण तपशीलांसाठी ऑडॅसिटी विकीमध्ये विकसक ऑन विंडोज वरील सूचनांचे अनुसरण करा आणि दुवे डाउनलोड करा.</t>
-  </si>
-  <si>
-    <t>आपल्याला मदतीची आवश्यकता असल्यास, कृपया ऑडसिटी फोरमवरील कंपाईल ऑडॅसिटी बोर्डवर विचारा.</t>
+    <t>ASIO ध्वनी इंटरफेस - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ASIO ध्वनी इंटरफेस</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>विंडोजवर कमी विलंब मुद्रण आणि प्लेबॅकसाठी मालकीचे एएसआयओ इंटरफेस मानक आवश्यक आहे. विंडोजवर बहु-वाहिनी मुद्रण बनविण्याचा हा देखील एक चांगला मार्ग आहे.</t>
+  </si>
+  <si>
+    <t>परवाना प्रतिबंध आम्हाला ओड्यासिटीच्या प्रकाशन झालेल्या आवृत्त्यांमध्ये एएसआयओ समर्थनासहित प्रतिबंधित करते, परंतु खाजगी, वितरित न करण्यायोग्य वापरासाठी एएसआयओ समर्थनासह ओड्यासिटी संकलित केली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>विंडोज, लिनक्स आणि मॅकवरील १ वतीने</t>
+  </si>
+  <si>
+    <t>२ ओड्यासिटी आणि एएसआयओ</t>
+  </si>
+  <si>
+    <t>३ ओड्यासिटीमध्ये न वितरणीय एएसआयओ समर्थन</t>
+  </si>
+  <si>
+    <t>एएसआयओ हे विंडोजवरील वापरात असलेले मालकीचे ध्वनी इंटरफेस मानक आहे जे कार्यप्रणालीच्या मिश्र कर्नलला मागे टाकत आहे, म्हणून संगणक ध्वनी सॉफ्टवेअर आणि हार्डवेअर दरम्यान सर्वात कमी विलंब थेट संवाद प्रदान करते.</t>
+  </si>
+  <si>
+    <t>मूळ नसलेल्या एएसआयओ उत्पादित मूळ स्त्रोतापेक्षा "बिट एकसारखे" आहे.</t>
+  </si>
+  <si>
+    <t>हार्डवेअरचे एकाधिक भौतिक माहिती पुरवणे आणि उत्पादित वाहिनी एकाच उपकरणावर प्रवेश केले जातात.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये मायक्रोसॉफ्टच्या विंडोज डायरेक्टसाऊंड इंटरफेस शिष्टाचारचे समर्थन समाविष्ट आहे. ते वापरण्यासाठी, उपकरणे टूलबारमध्ये यजमान म्हणून "विंडोज डायरेक्टसाऊंड" निवडा. हे काही ध्वनी उपकरणांवर बहु-वाहिनी मुद्रणला समर्थन देईल, परंतु एएसआयओवर शक्य तितक्या कमी विलंब नाही.</t>
+  </si>
+  <si>
+    <t>लिनक्स वर, मानक ALSA ध्वनी API सामान्यत: MME किंवा Windows DirectSound अंतर्गत Windows पेक्षा कमी विलंब प्रदान करते. तथापि, बर्‍याच लिनक्स वितरणे आता ध्वनी रूटिंग आणि मिक्सिंगसाठी डीफॉल्टनुसार पल्स ध्वनी वापरतात. पल्स ध्वनी आवाज स्रोत आणि लिनक्स कर्नल दरम्यान बसला आहे आणि म्हणूनच ALSA च्या थेट वापरापेक्षा काही प्रमाणात उशीर झाला आहे. सर्वात कमी विलंबसाठी, आपण जॅक एपीआय वापरू शकता जे अनुप्रयोगांदरम्यान कमी विलंबता ध्वनी संप्रेषण आणि ध्वनी रूटिंग दोन्ही प्रदान करते. सध्या ओड्यासिटी JACK ला बऱ्यापैकी समर्थन देते, परंतु काही मर्यादांसह.</t>
+  </si>
+  <si>
+    <t>ओडीसिटी, जीपीएल अंतर्गत परवानाकृत मुक्त स्रोत प्रोग्राम म्हणून, सध्या एएसआयओ-सक्षम असूनही वापरकर्त्याचे समर्थन करण्यास असमर्थ आहे (वापरकर्त्याचे ध्वनी यंत्र प्रदान करणे देखील तितकेच सक्षम आहे). जर एएसआयओ समर्थन ओड्यासिटी नेतयार केलेले वितरित केला गेला असेल तर हे एकतर कोडचा समावेश केल्यास स्टीनबर्गच्या परवान्याच्या कराराचे उल्लंघन करेल किंवा कोड न ठेवल्यास उलटपक्षी ओड्यासिटीच्या जीपीएल परवान्याचे उल्लंघन करेल. स्टीनबर्ग कायम परवाना उघडण्याच्या अफवा पसरवत आहेत पण कोणतीही उघड हालचाल न करता. ज्या कोणालाही या समस्येची काळजी आहे त्यांना स्टेनबर्गला त्यांचे संपर्क पृष्ठाद्वारे त्यांची मते जाणून घेण्यासाठी आमंत्रित केले आहे.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये न वितरणीय एएसआयओ समर्थन</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विंडोजवर अशा व्यक्तींसाठी एएसआयओ समर्थन प्रदान करते जे पर्यायी स्टीनबर्ग एएसआयओ एसडीके वापरून स्त्रोत कोडमधून ओड्यासिटी संकलित करण्यास तयार आहेत.</t>
+  </si>
+  <si>
+    <t>ASIO समर्थन कठोरपणे प्रदान केले जाते की ते विना-वितरित आहे, म्हणजेच, आपण इतर कोणालाही ASIO समर्थनासह तयार केलेल्याची प्रत किंवा वितरण करू शकत नाही. तयार केलेले कठोरपणे आपल्या स्वत: च्या वैयक्तिक (खाजगी किंवा व्यावसायिक) वापरासाठी आहे. त्याच कारणांसाठी, ओड्यासिटी एएसआयओ समर्थनासह ओड्यासीटीचे बिल्ड वितरित करू शकत नाही, म्हणून कृपया विचारू नका!</t>
+  </si>
+  <si>
+    <t>खाली ASIO समर्थनासह स्त्रोत कोडवरून ओड्यासिटी संकलित करण्याचे विहंगावलोकन आहे.</t>
+  </si>
+  <si>
+    <t>आपण ज्या ठिकाणी विजेट्स स्थापित केले त्या डिरेक्टरीमध्ये डब्ल्यूएक्सडब्ल्यूएन एनवायरनमेंट व्हेरिएबल स्थापित करा आणि जिथे आपण एएसआयओ एसडीके स्थापित केले त्या निर्देशिकेमध्ये एएसआयओएसडीके_डिआयर एन्व्हायर्नमेंट व्हेरिएबल स्थापित करा. संगणक रीबूट करा.</t>
+  </si>
+  <si>
+    <t>व्हिज्युअल स्टुडिओ वापरुन ओड्यासिटी बिल्ड करा.</t>
+  </si>
+  <si>
+    <t>संपूर्ण तपशीलांसाठी ओड्यासिटी विकीमध्ये विकसक ऑन विंडोज वरील सूचनांचे अनुसरण करा आणि दुवे डाउनलोड करा.</t>
+  </si>
+  <si>
+    <t>आपल्याला मदतीची आवश्यकता असल्यास, कृपया ओड्यासिटी फोरमवरील कंपाईल ओड्यासिटी बोर्डवर विचारा.</t>
+  </si>
+  <si>
+    <t>मॅक वर, मूळ ध्वनी एक मानक एपीआय आहे आणि ओड्यासिटीद्वारे पूर्णपणे समर्थित आहे. मूळ ध्वनीमध्ये एमएमई आणि विंडोज डायरेक्टसाऊंड अंतर्गत विंडोजपेक्षा कमी विलंब देखील आहेत परंतु सर्वात कमी विलंब होण्यासाठी जॅक ओएस एक्सचा वापर केला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी आणि एएसआयओ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,10 +288,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,6 +305,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +391,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +443,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,393 +636,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="97.21875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>69</v>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
